--- a/data/baseTesteIXC_Transform.xlsx
+++ b/data/baseTesteIXC_Transform.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83521232034</t>
+          <t>685.796.740-77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>27010089051</t>
+          <t>281.742.620-75</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71988249007</t>
+          <t>673.248.950-00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>36544973068</t>
+          <t>108.151.210-59</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62950454054</t>
+          <t>976.069.770-03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>54098736020</t>
+          <t>660.107.170-60</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>85604945000175</t>
+          <t>52.459.301/0001-81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1046,14 +1046,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>565</v>
+        <v>1057</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Adilson Pereira Da Silva</t>
+          <t>Adriana Paulino da Silva</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28043105000147</t>
+          <t>54.404.537/0001-46</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>35170212</t>
+          <t>ISENTO</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1084,22 +1084,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Ass.: Flor do Mundaú</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Pop Matinha</t>
-        </is>
-      </c>
+          <t>Platô 1/ Q: 02</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>06</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Zona Rural</t>
+          <t>Conj. Raimundo Nonato Lopes</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1111,82 +1107,10 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>teste8@radios.com</t>
+          <t>teste9@radios.com</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
-        <is>
-          <t>silva</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1057</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Adriana Paulino da Silva</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>92678107000101</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>ISENTO</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>35</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Platô 1/ Q: 02</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Conj. Raimundo Nonato Lopes</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>teste9@radios.com</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t>silva</t>
         </is>

--- a/data/baseTesteIXC_Transform.xlsx
+++ b/data/baseTesteIXC_Transform.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/baseTesteIXC_Transform.xlsx
+++ b/data/baseTesteIXC_Transform.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>685.796.740-77</t>
+          <t>014.846.390-81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -583,7 +583,9 @@
           <t>57830-000</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>6824</v>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
@@ -593,526 +595,6 @@
       <c r="R2" t="inlineStr">
         <is>
           <t>peixoto</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>897</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Aclecia da Silva</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>281.742.620-75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>30234875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>35</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Maria de Lurdes</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Próximo ao mirante</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>teste2@radios.com</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>silva</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1120</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Adeilton da Mata</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>673.248.950-00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>40259595</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>35</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Ass. Nova Esperança</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>próximo a casa de farinha</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Zona Rural</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>teste3@radios.com</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>mata</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1524</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Adeilton da Silva</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>108.151.210-59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3614522-0</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Gravatá</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Lote do Sr. Del</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Zona Rural</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>teste4@radios.com</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>silva</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1427</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Adeilton Teixeira de Lima</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>976.069.770-03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36145220</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>35</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>João Lyra / Qd: A</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Conj. Raimundo Nonato Lopes</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>teste5@radios.com</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>lima</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>503</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Adelmo Luiz Berto De Oliveira</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>660.107.170-60</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ISENTO</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>35</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Rua: Manoel Luiz da Silva</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Próximo ao Mirante</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>teste6@radios.com</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>silva</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1288</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ademar Manoel da Silva</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>52.459.301/0001-81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>30972841</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>35</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Ass.: Flor do Mundaú</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>SN</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Zona Rural</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>teste7@radios.com</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>silva</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1057</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Adriana Paulino da Silva</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>teste@gmail.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99999999999</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>54.404.537/0001-46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ISENTO</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1659</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Platô 1/ Q: 02</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Conj. Raimundo Nonato Lopes</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>57830-000</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>teste9@radios.com</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>silva</t>
         </is>
       </c>
     </row>

--- a/data/baseTesteIXC_Transform.xlsx
+++ b/data/baseTesteIXC_Transform.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -586,7 +586,9 @@
       <c r="O2" t="n">
         <v>6824</v>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>25</v>
+      </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>teste1@radios.com</t>
